--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2233271.096847115</v>
+        <v>2338210.327022484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471978.129614288</v>
+        <v>9488295.576674921</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>18.277459477625</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>226.1780865011911</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>55.17793878914596</v>
       </c>
       <c r="X5" t="n">
-        <v>317.5058596069816</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.70739922262716</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>80.9564832373345</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>139.49345967434</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.3177998004619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>173.294842889186</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.379976061250434</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,19 +1341,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>126.5816737497794</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>146.0764391540941</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>2.607010073153256</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>6.600826611594925</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>178.9060413124614</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>98.7210611920036</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7243167060844</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>33.48499328953133</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>143.2091541404069</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>100.5140508960364</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.7851267360007</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>37.0116323694656</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>89.43437620021363</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>2543.877248119726</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>2543.877248119726</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2290.296187383906</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>1959.233300040335</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>1606.464644770221</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1232.998886509141</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>842.8595545333294</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>885.7927713071094</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>885.7927713071094</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1559.116588708439</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.154071768027</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="X5" t="n">
-        <v>2335.855760748373</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1945.716428772561</v>
+        <v>1991.765497244606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.7915515140957</v>
+        <v>472.928063664427</v>
       </c>
       <c r="C7" t="n">
-        <v>194.8553685861887</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>194.8553685861887</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>194.8553685861887</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>194.8553685861887</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1103.358658536214</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>875.3691076381969</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>654.5765284946667</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3074.412668616731</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3074.412668616731</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2721.644013346617</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2331.504681370805</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.126594326469</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>517.1904113985621</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>367.0737719862263</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.126594326469</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
         <v>680.0291294438176</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5294,34 +5296,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5686,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1353.195110654903</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>267.6802639609656</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>267.6802639609656</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>100.4841646758455</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6302,31 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L27" t="n">
-        <v>2854.44064873475</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.44064873475</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
         <v>4690.833152398593</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2210.498878109345</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1990.897413132287</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.822186476484</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1447.137698270597</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1157.720528233637</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>929.7309773356195</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.7309773356195</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3228.447361044447</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>3059.51117811654</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2909.394538704204</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>3275.130390493383</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>3456.778855323623</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2238.116390149333</v>
+        <v>2243.770787170036</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.514925172274</v>
+        <v>2024.169322192977</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1735.094095537175</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.409607331288</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1190.992437294328</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>963.0028863963103</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.274529420831</v>
+        <v>2289.579626095074</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443772</v>
+        <v>2069.978161118015</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1780.902934462213</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1526.218446256326</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.36925650589455</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>99.12798163925773</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>140.4465591824969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>143.8269525734159</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>68.52575990662423</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.30196929556018</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9489693570378</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>74.19629618688137</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>66.73277020259141</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.24115926564389</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>215.1260109543624</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>91.59190980143096</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829580.985374456</v>
+        <v>837899.6838759552</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>829580.985374456</v>
+        <v>837899.6838759552</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810792</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.23512810784</v>
       </c>
-      <c r="D4" t="n">
-        <v>88524.23512810786</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
@@ -26433,13 +26435,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
@@ -26448,13 +26450,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909421.5940188816</v>
+        <v>-728634.5023096539</v>
       </c>
       <c r="C6" t="n">
-        <v>419323.1517087111</v>
+        <v>386117.2812662654</v>
       </c>
       <c r="D6" t="n">
-        <v>419323.1517087111</v>
+        <v>226696.0112683733</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794856</v>
+        <v>169487.7577794857</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868406</v>
+        <v>494900.2195868407</v>
       </c>
       <c r="G6" t="n">
+        <v>494900.2195868407</v>
+      </c>
+      <c r="H6" t="n">
+        <v>494900.2195868409</v>
+      </c>
+      <c r="I6" t="n">
         <v>494900.2195868408</v>
       </c>
-      <c r="H6" t="n">
-        <v>494900.2195868402</v>
-      </c>
-      <c r="I6" t="n">
-        <v>494900.2195868404</v>
-      </c>
       <c r="J6" t="n">
-        <v>277369.0171895631</v>
+        <v>327295.0417768583</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868403</v>
+        <v>494900.2195868405</v>
       </c>
       <c r="L6" t="n">
-        <v>494900.2195868404</v>
+        <v>446606.2495786497</v>
       </c>
       <c r="M6" t="n">
         <v>409845.1916513288</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868405</v>
+        <v>494900.2195868404</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868404</v>
+        <v>494900.2195868407</v>
       </c>
       <c r="P6" t="n">
         <v>494900.2195868405</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>105.1747559211694</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>25.95955682263687</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>294.063029928267</v>
       </c>
       <c r="X5" t="n">
-        <v>52.22524107148746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.3184090364011</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>205.5665150992565</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>111.501712284562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>60.92013885559169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.537137292751282</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.0539865853187</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32075,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q21" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33427,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33506,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>558.3177848342784</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206119</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>397.300588787935</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060407</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q21" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>477.9853321427309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37154,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394525</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338210.327022484</v>
+        <v>2334114.685517717</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.12839504521749</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.277459477625</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>226.1780865011911</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>90.75043168514618</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>55.17793878914596</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>230.8127283073653</v>
       </c>
       <c r="W7" t="n">
-        <v>80.9564832373345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>243.587527422499</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>139.49345967434</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.294842889186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>87.71169339385507</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>126.5816737497794</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>112.035792842299</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4048731212358</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E22" t="n">
-        <v>2.607010073153256</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>132.2740511637363</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>178.9060413124614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>98.7210611920036</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33.48499328953133</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2091541404069</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>100.5140508960364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>134.7851267360007</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>37.0116323694656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>89.43437620021363</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.8595545333294</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1619.429681714013</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>1233.641429115769</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>822.6555243261616</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>406.9507740504505</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>102.8916300480208</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2543.877248119726</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2543.877248119726</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2290.296187383906</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1959.233300040335</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1606.464644770221</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1232.998886509141</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>842.8595545333294</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1547555788524</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>885.7927713071094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>885.7927713071094</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>657.8032204090921</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.8032204090921</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.165657180484</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>631.9377894692982</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>631.9377894692982</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>220.9518846796906</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>209.2875384443836</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.904829220417</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2381.904829220417</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1991.765497244606</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
         <v>1248.170551105041</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.928063664427</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>303.9918807365201</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W7" t="n">
-        <v>1103.358658536214</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X7" t="n">
-        <v>875.3691076381969</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.5765284946667</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2251.634947019675</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1882.672430079263</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1524.406731472513</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1138.618478874268</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>727.6325740846607</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>312.5601239296572</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3074.412668616731</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3074.412668616731</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2721.644013346617</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2721.644013346617</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1782.643018105</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1527.958529899113</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302817</v>
+        <v>1010.551808964135</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>789.7592298206044</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>430.782665075334</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>430.782665075334</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>430.782665075334</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.204656667458</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2878.204656667458</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192511</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3241.424143276705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3869.022106831312</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.516248701935</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2878.798005073648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,7 +6499,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3228.447361044447</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3059.51117811654</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2909.394538704204</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4230.570347950413</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.406834234631</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3275.130390493383</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467153</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X37" t="n">
-        <v>3677.571434467153</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y37" t="n">
-        <v>3456.778855323623</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.770787170036</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.169322192977</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.094095537175</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.409607331288</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.992437294328</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.0028863963103</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2257.062161108198</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2257.062161108198</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2289.579626095074</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2069.978161118015</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1780.902934462213</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1526.218446256326</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921338</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>30.36925650589455</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>93.31459260778949</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.12798163925773</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.48834544996983</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.30478226780136</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E22" t="n">
-        <v>143.8269525734159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>34.97276993489155</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>68.52575990662423</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9489693570378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
-        <v>74.19629618688137</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>66.73277020259141</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>36.51445555167257</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.24115926564389</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>215.1260109543624</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>91.59190980143096</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675044</v>
@@ -26331,31 +26331,31 @@
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26456,7 +26456,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728634.5023096539</v>
+        <v>-728634.5023096543</v>
       </c>
       <c r="C6" t="n">
-        <v>386117.2812662654</v>
+        <v>386117.2812662655</v>
       </c>
       <c r="D6" t="n">
-        <v>226696.0112683733</v>
+        <v>226696.0112683732</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794857</v>
+        <v>169140.3785251284</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868407</v>
+        <v>494552.8403324836</v>
       </c>
       <c r="G6" t="n">
-        <v>494900.2195868407</v>
+        <v>494552.8403324839</v>
       </c>
       <c r="H6" t="n">
-        <v>494900.2195868409</v>
+        <v>494552.8403324835</v>
       </c>
       <c r="I6" t="n">
-        <v>494900.2195868408</v>
+        <v>494552.8403324835</v>
       </c>
       <c r="J6" t="n">
-        <v>327295.0417768583</v>
+        <v>326947.662522501</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868405</v>
+        <v>494552.8403324833</v>
       </c>
       <c r="L6" t="n">
-        <v>446606.2495786497</v>
+        <v>446258.8703242925</v>
       </c>
       <c r="M6" t="n">
-        <v>409845.1916513288</v>
+        <v>409497.8123969715</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868404</v>
+        <v>494552.8403324836</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868407</v>
+        <v>494552.8403324839</v>
       </c>
       <c r="P6" t="n">
-        <v>494900.2195868405</v>
+        <v>494552.840332484</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>14.58151762725301</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>105.1747559211694</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>25.95955682263687</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>210.2681208772592</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>294.063029928267</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.32491501646271</v>
       </c>
       <c r="W7" t="n">
-        <v>205.5665150992565</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>51.02023696482144</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>111.501712284562</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.537137292751282</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33429,7 +33429,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.0844763571693</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>152.5685698206119</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882568</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>397.300588787935</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>57.65947400496658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>586.9504424351509</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>25.73094315394525</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2334114.685517717</v>
+        <v>2335875.215820502</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>274.9695432107756</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.12839504521749</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>46.24467307253359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>18.7778355093986</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>230.8127283073653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>243.587527422499</v>
+        <v>272.0965632240252</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>27.19292662790652</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881296</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>87.71169339385507</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>228.3671452751972</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>112.035792842299</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>132.2740511637363</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>30.97191586387568</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>180.8909947756157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576164</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>104.4262124629293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>115.2302178375792</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>1977.695380320764</v>
+        <v>1484.033655906823</v>
       </c>
       <c r="D2" t="n">
-        <v>1619.429681714013</v>
+        <v>1125.767957300073</v>
       </c>
       <c r="E2" t="n">
-        <v>1233.641429115769</v>
+        <v>739.9797047018285</v>
       </c>
       <c r="F2" t="n">
-        <v>822.6555243261616</v>
+        <v>328.9937999122209</v>
       </c>
       <c r="G2" t="n">
-        <v>406.9507740504505</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>102.8916300480208</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>711.8144409709064</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>542.8782580429995</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>392.7616186306637</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431134</v>
+        <v>244.8485250482706</v>
       </c>
       <c r="F4" t="n">
-        <v>102.742491745203</v>
+        <v>97.95857755036027</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>97.95857755036027</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>97.95857755036027</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>893.4629058011461</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>643.8611643309004</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>474.9249814029935</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1403.301950067057</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.884780030097</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X7" t="n">
-        <v>885.8952291320793</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.1026499885492</v>
+        <v>643.8611643309004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.634947019675</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>1882.672430079263</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.406731472513</v>
+        <v>787.1198280123631</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.618478874268</v>
+        <v>401.3315754141188</v>
       </c>
       <c r="F8" t="n">
-        <v>727.6325740846607</v>
+        <v>394.3860746649154</v>
       </c>
       <c r="G8" t="n">
-        <v>312.5601239296572</v>
+        <v>383.3540285503159</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>93.97971908663445</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206044</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926976</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803618</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979687</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
         <v>175.9033664000583</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2291.319709737861</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2071.718244760802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1782.643018105</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1527.958529899113</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1238.541359862152</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X13" t="n">
-        <v>1010.551808964135</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y13" t="n">
-        <v>789.7592298206044</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876697</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>430.782665075334</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>430.782665075334</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>430.782665075334</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192511</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C34" t="n">
         <v>538.7363435406111</v>
@@ -6846,16 +6846,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.244907039234</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.169680383432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.485192177545</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>434.0093569897584</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>93.31459260778949</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>58.15585306139383</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>53.48834544996983</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.97276993489155</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>35.40333084624601</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>127.256811246707</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>36.51445555167257</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.979237864359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.2939204546896</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756533</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756563</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756644</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728634.5023096543</v>
+        <v>-728634.5023096544</v>
       </c>
       <c r="C6" t="n">
         <v>386117.2812662655</v>
@@ -26530,40 +26530,40 @@
         <v>226696.0112683732</v>
       </c>
       <c r="E6" t="n">
-        <v>169140.3785251284</v>
+        <v>169453.0198540497</v>
       </c>
       <c r="F6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="G6" t="n">
-        <v>494552.8403324839</v>
+        <v>494865.4816614046</v>
       </c>
       <c r="H6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614051</v>
       </c>
       <c r="I6" t="n">
-        <v>494552.8403324835</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="J6" t="n">
-        <v>326947.662522501</v>
+        <v>327260.3038514222</v>
       </c>
       <c r="K6" t="n">
-        <v>494552.8403324833</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="L6" t="n">
-        <v>446258.8703242925</v>
+        <v>446571.511653214</v>
       </c>
       <c r="M6" t="n">
-        <v>409497.8123969715</v>
+        <v>409810.4537258928</v>
       </c>
       <c r="N6" t="n">
-        <v>494552.8403324836</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="O6" t="n">
-        <v>494552.8403324839</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="P6" t="n">
-        <v>494552.840332484</v>
+        <v>494865.4816614047</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.8166233022541</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>136.5781595621784</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>14.58151762725301</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>58.55192213136697</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>147.5287645354056</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.32491501646271</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>51.02023696482144</v>
+        <v>22.51120116329525</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>118.2281213950247</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748332</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.06866097220871e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
